--- a/TP01/noticias.xlsx
+++ b/TP01/noticias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,55 +449,55 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/politica/santiago-caputo-avanza-sobre-la-uif-postulo-como-vicepresidente-a-un-abogado-sin-experiencia-en-la-nid19092024/</t>
+          <t>/politica/macri-esta-dispuesto-a-apoyar-el-presupuesto-pero-pro-no-votara-a-libro-cerrado-y-exigira-cambios-a-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dato clave. El desempleo trepó a 7,6%, pero hay signos de que el ajuste se habría frenado</t>
+          <t>Otra alarma en la Rosada. Las seis provincias del Litoral argentino se abroquelan para discutir planes y recursos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/economia/el-desempleo-aumento-a-76-pero-hay-signos-de-que-el-ajuste-en-el-mercado-laboral-se-habria-frenado-nid19092024/</t>
+          <t>/politica/suena-otra-alarma-en-la-rosada-las-seis-provincias-del-litoral-se-abroquelan-para-discutir-planes-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>El futuro de Aerolíneas. Seis claves para entender el conflicto y la nueva jugada de Milei</t>
+          <t>Dólar. El MEP perforó los $1200 y el riesgo país cayó a su valor más bajo en cuatro meses</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/economia/seis-claves-para-entender-el-conflicto-de-aerolineas-y-la-nueva-jugada-de-milei-nid19092024/</t>
+          <t>/economia/dolar/dolar-hoy-el-riesgo-pais-cae-50-puntos-y-alcanza-el-valor-mas-bajo-en-cuatro-meses-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Otra amenaza de paro. Se unen todos los gremios del transporte para rechazar la eventual privatización de Aerolíneas</t>
+          <t>Causa Vialidad. El fiscal Luciani reveló que sufrió “presiones inconcebibles” en el juicio a Cristina Kirchner</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/politica/se-unen-todos-los-gremios-del-transporte-para-rechazar-la-eventual-privatizacion-de-aerolineas-nid19092024/</t>
+          <t>/politica/el-fiscal-diego-luciani-revelo-que-sufrio-presiones-inconcebibles-durante-el-juicio-a-cristina-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conflicto en Aerolíneas Argentinas. Una silla vacante enciende las alarmas en la empresa</t>
+          <t>Conmoción. A los 69 años, murió el actor Daniel Fanego</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/economia/una-silla-vacante-desde-el-1-de-octubre-enciende-las-alarmas-en-aerolineas-argentinas-nid19092024/</t>
+          <t>/espectaculos/personajes/murio-el-actor-daniel-fanego-nid19092024/</t>
         </is>
       </c>
     </row>
@@ -516,1522 +516,1462 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>“Sorprendente”: identifican al principal responsable de las variaciones climáticas de los últimos 485 millones de años</t>
+          <t>Javier Milei vuelve a Parque Lezama para el lanzamiento de La Libertad Avanza como partido nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/sociedad/sorprendente-identifican-al-principal-responsable-de-las-variaciones-climaticas-de-los-ultimos-485-nid19092024/</t>
+          <t>/politica/javier-milei-vuelve-a-parque-lezama-para-el-lanzamiento-de-la-libertad-avanza-como-partido-nacional-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>La causa del 19 y 20 de diciembre demoró 23 años por deficiencias en la investigación, chicanas y esperas para iniciar el juicio oral</t>
+          <t>El fiscal Diego Luciani reveló que sufrió “presiones inconcebibles” durante el juicio a Cristina Kirchner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/politica/la-causa-del-19-y-20-de-diciembre-demoro-23-anos-por-deficiencias-en-la-investigacion-chicanas-y-nid19092024/</t>
+          <t>/politica/el-fiscal-diego-luciani-revelo-que-sufrio-presiones-inconcebibles-durante-el-juicio-a-cristina-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bajo fuego. Cada 30 horas, un policía de la Ciudad se enfrenta con delincuentes en la provincia de Buenos Aires</t>
+          <t>ADEPA destacó el valor de la prensa para lograr un debate informado y racional, sin “hostigamiento y fake news”</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/seguridad/bajo-fuego-cada-30-horas-un-policia-de-la-ciudad-se-enfrenta-con-delincuentes-en-la-provincia-de-nid19092024/</t>
+          <t>/politica/adepa-destaco-el-valor-de-la-prensa-para-lograr-un-debate-informado-y-racional-sin-hostigamiento-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Valores de referencia: cuánto saldrá veranear en la costa</t>
+          <t>Rod Laver Cup: fixture, formato y todo lo que hay que saber</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/sociedad/valores-de-referencia-cuanto-saldra-vacacionar-en-la-costa-nid19092024/</t>
+          <t>/deportes/tenis/rod-laver-cup-fixture-formato-y-todo-lo-que-hay-que-saber-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aerolíneas Argentinas. Los gremios y el Gobierno, dispuestos a aguantar en sus trincheras, con los pasajeros en el medio de la batalla</t>
+          <t>El relato completo de la madre de Fabiola. Una embarazada en el piso, el aborto y las amenazas del hombre que negaba todo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/economia/aerolineas-argentinas-los-gremios-y-el-gobierno-dispuestos-a-aguantar-en-sus-trincheras-con-los-nid19092024/</t>
+          <t>/politica/el-relato-completo-de-la-madre-de-fabiola-una-embarazada-en-el-piso-las-amenazas-y-el-hombre-que-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Más de 6 horas de audiencia. “Vi cómo Alberto empujó a mi hija cuando estaba embarazada”, declaró la madre de Fabiola Yañez</t>
+          <t>Conflicto en Aerolíneas Argentinas. Una silla vacante enciende las alarmas en la empresa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/politica/la-madre-de-fabiola-yanez-llego-a-los-tribunales-para-declarar-en-la-causa-por-violencia-de-genero-nid19092024/</t>
+          <t>/economia/una-silla-vacante-desde-el-1-de-octubre-enciende-las-alarmas-en-aerolineas-argentinas-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>"Valores fundacionales". El plan de Williams para recuperar el brillo perdido con el empuje de Colapinto</t>
+          <t>"No se equivocaba". El policía asesinado en Lanús era el detective que más casos había resuelto en la División Homicidios desde 2018</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/deportes/automovilismo/franco-colapinto-y-el-espiritu-historico-del-equipo-williams-como-se-alineo-la-escuderia-en-busca-de-nid19092024/</t>
+          <t>/seguridad/el-policia-asesinado-en-lanus-era-el-detective-que-mas-casos-habia-resuelto-en-la-division-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>“Tuvimos un par de semanas difíciles”. Roberto García Moritán se refirió a los rumores de separación de Pampita</t>
+          <t>“Sorprendente”. Identifican al principal responsable de las variaciones climáticas de los últimos 485 millones de años</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/roberto-garcia-moritan-desmintio-los-rumores-de-separacion-de-pampita-ardohain-seguimos-priorizando-nid19092024/</t>
+          <t>/sociedad/sorprendente-identifican-al-principal-responsable-de-las-variaciones-climaticas-de-los-ultimos-485-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>En la intimidad. Se dieron a conocer nuevas fotos de Fabiola Yañez con golpes en el rostro y con Fernández a su lado</t>
+          <t>Tercerizar, privatizar, dividir o liquidar activos. Qué se puede hacer (y qué no) con Aerolíneas Argentinas según los expertos</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/politica/se-dieron-a-conocer-nuevas-fotos-de-fabiola-yanez-con-golpes-en-su-rostro-nid19092024/</t>
+          <t>/economia/tercerizar-privatizar-dividir-o-liquidar-activos-que-se-puede-hacer-y-que-no-con-aerolineas-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"No se equivocaba". El policía asesinado en Lanús era el detective que más casos había resuelto en la División Homicidios desde 2018</t>
+          <t>Periodismo. ADEPA destacó el valor de la prensa para lograr un debate informado y racional, sin “hostigamiento y fake news”</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/seguridad/el-policia-asesinado-en-lanus-era-el-detective-que-mas-casos-habia-resuelto-en-la-division-nid19092024/</t>
+          <t>/politica/adepa-destaco-el-valor-de-la-prensa-para-lograr-un-debate-informado-y-racional-sin-hostigamiento-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bajo fuego. Bajo fuego. Cada 30 horas, un policía de la Ciudad se enfrenta con delincuentes en la provincia de Buenos Aires</t>
+          <t>"Valores fundacionales". El plan de Williams para recuperar el brillo perdido con el empuje de Colapinto</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/seguridad/bajo-fuego-cada-30-horas-un-policia-de-la-ciudad-se-enfrenta-con-delincuentes-en-la-provincia-de-nid19092024/</t>
+          <t>/deportes/automovilismo/franco-colapinto-y-el-espiritu-historico-del-equipo-williams-como-se-alineo-la-escuderia-en-busca-de-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>"Todo el mundo afanaba, era un asco". Susana sin filtro: dice que no votó a Milei, que Alberto Fernández “es un mamarracho” y qué busca en un hombre hoy</t>
+          <t>Polémica. Santiago Caputo avanza sobre la UIF: postuló como vicepresidente a un abogado sin experiencia en lavado de dinero</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/susana-intima-su-ansiada-vuelta-a-la-tv-el-miedo-a-la-muerte-y-la-invitacion-a-milei-nid19092024/</t>
+          <t>/politica/santiago-caputo-avanza-sobre-la-uif-postulo-como-vicepresidente-a-un-abogado-sin-experiencia-en-la-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hacedores. La historia del matrimonio que creó Prüne, la marca de carteras argentina más elegida por los extranjeros</t>
+          <t>"Hola a todos". Milei vuelve a Parque Lezama para el lanzamiento de La Libertad Avanza como partido nacional</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/economia/negocios/la-historia-del-matrimonio-que-creo-prune-la-marca-de-carteras-argentina-mas-elegida-por-los-nid19092024/</t>
+          <t>/politica/javier-milei-vuelve-a-parque-lezama-para-el-lanzamiento-de-la-libertad-avanza-como-partido-nacional-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Golpe tecnológico. Cómo hizo Israel para lanzar el ataque que sorprendió a Hezbollah y al mundo</t>
+          <t>En la intimidad. Se dieron a conocer nuevas fotos de Fabiola Yañez con golpes en el rostro y con Fernández a su lado</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/el-mundo/golpe-tecnologico-como-hizo-israel-para-lanzar-el-ataque-que-sorprendio-a-hezbollah-y-al-mundo-nid18092024/</t>
+          <t>/politica/se-dieron-a-conocer-nuevas-fotos-de-fabiola-yanez-con-golpes-en-su-rostro-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>"Me sorprende viajar en el tiempo". Los países vecinos que comparten el nombre y en los que es posible ir al pasado o al futuro en 30 minutos</t>
+          <t>Extraños incidentes. El caso de los teléfonos de Fernández, Yañez y su familia, que se pierden o se rompen y no llegan a la causa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/el-mundo/los-paises-vecinos-que-comparten-el-nombre-y-en-los-que-es-posible-viajar-al-pasado-o-al-futuro-en-nid19092024/</t>
+          <t>/politica/el-extrano-caso-de-los-telefonos-de-alberto-fernandez-fabiola-yanez-y-su-familia-que-se-pierden-o-se-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>“La intensidad de ellos te agobia”. El candidato del Frente Amplio intentó aclarar su comparación entre uruguayos y argentinos</t>
+          <t>“Tuvimos un par de semanas difíciles”. Roberto García Moritán rompió el silencio y se refirió a los rumores de separación de Pampita</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/el-mundo/el-candidato-del-frente-amplio-intento-aclarar-su-comparacion-entre-uruguayos-y-argentinos-la-nid19092024/</t>
+          <t>/espectaculos/personajes/roberto-garcia-moritan-desmintio-los-rumores-de-separacion-de-pampita-ardohain-seguimos-priorizando-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>En Europa. Tras 43 años de controversias, el Vaticano autorizó el culto en un santuario de la Virgen muy visitado por argentinos</t>
+          <t>"Impunidad selectiva". Las deficiencias en la investigación y las chicanas que demoraron 23 años la causa por las muertes del 2001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/el-mundo/despues-de-43-anos-el-vaticano-autorizo-el-culto-publico-a-la-virgen-de-medjugorje-pero-no-se-nid19092024/</t>
+          <t>/politica/la-causa-del-19-y-20-de-diciembre-demoro-23-anos-por-deficiencias-en-la-investigacion-chicanas-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Escándalo. Acusan de violación a Mohamed Al-Fayed, el fallecido magnate egipcio cuyo hijo fue la última pareja de Lady Di</t>
+          <t>Está en Tigre. Es uno de los tres mejores colegios del mundo: las razones detrás del éxito</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/el-mundo/acusan-de-violacion-a-mohamed-al-fayed-el-fallecido-magnate-egipcio-cuyo-hijo-fue-la-ultima-pareja-nid19092024/</t>
+          <t>/sociedad/esta-en-tigre-es-uno-de-los-mejores-tres-colegios-del-mundo-las-razones-detras-del-exito-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>"Si continúan las extorsiones". El Gobierno anunció que trabaja para que empresas privadas operen Aerolíneas Argentinas</t>
+          <t>"Rogaba no pegarle a nadie". El momento en que un camión atmosférico volcó 50 toneladas de su carga sobre la calle en Mar del Plata</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/politica/conflicto-en-aerolineas-reunion-de-alto-nivel-en-el-gobierno-para-terminar-con-la-extorsion-de-los-nid19092024/</t>
+          <t>/sociedad/el-video-de-un-camion-atmosferico-que-volco-50-toneladas-de-su-carga-sobre-la-calle-en-mar-del-plata-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Presión. El Gobierno identifica cinco posibles empresas para que operen Aerolíneas y evalúan incluso que traigan aviones de afuera</t>
+          <t>Cita mortal. Cuatro detenidos por el crimen del financista en Villa Carlos Paz; hay una mujer prófuga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/politica/el-gobierno-identifica-cinco-posibles-empresas-para-que-operen-aerolineas-y-evaluan-incluso-que-nid19092024/</t>
+          <t>/seguridad/cuatro-detenidos-por-el-crimen-del-financista-en-villa-carlos-paz-hay-una-mujer-profuga-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>La pelea por Aerolíneas Argentinas. Cuáles son las líneas aéreas privadas de la región y qué es lo que busca el Gobierno</t>
+          <t>Otra amenaza de paro. Se unen todos los gremios del transporte para rechazar la eventual privatización de Aerolíneas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/economia/negocios/la-pelea-por-aerolineas-argentinas-cuales-son-las-lineas-aereas-privadas-de-la-region-y-que-es-lo-nid19092024/</t>
+          <t>/politica/se-unen-todos-los-gremios-del-transporte-para-rechazar-la-eventual-privatizacion-de-aerolineas-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a fondo ¿Quién mató a los yaguaretés? Viaje a la Formosa profunda detrás de los cazadores de esta especie en extinción</t>
+          <t>Aerolíneas Argentinas. Los gremios y el Gobierno, dispuestos a aguantar en sus trincheras, con los pasajeros en el medio de la batalla</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/sociedad/quien-mato-a-los-yaguaretes-viaje-a-la-formosa-profunda-detras-de-los-cazadores-de-esta-especie-en-nid19092024/</t>
+          <t>/economia/aerolineas-argentinas-los-gremios-y-el-gobierno-dispuestos-a-aguantar-en-sus-trincheras-con-los-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Para el Gobierno. El pedido chavista de detención de Milei complica aún más a los asilados en la embajada en Venezuela</t>
+          <t>El futuro de Aerolíneas. Seis claves para entender el conflicto y la nueva jugada de Milei</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/politica/para-el-gobierno-el-pedido-chavista-de-detencion-de-milei-complica-aun-mas-a-los-asilados-en-la-nid19092024/</t>
+          <t>/economia/seis-claves-para-entender-el-conflicto-de-aerolineas-y-la-nueva-jugada-de-milei-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tras los días de tensión. Guillermo Francos empoderó a su segundo, mientras persisten diferencias en la cúpula del Gobierno</t>
+          <t>Dato clave. El desempleo trepó a 7,6%, pero hay signos de que el ajuste se habría frenado</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/politica/guillermo-francos-tras-los-dias-de-tension-empodero-a-su-segundo-mientras-persisten-diferencias-en-nid19092024/</t>
+          <t>/economia/el-desempleo-aumento-a-76-pero-hay-signos-de-que-el-ajuste-en-el-mercado-laboral-se-habria-frenado-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Conurbano. El intendente que se peleó con los supermercados por las tasas quedó como el peor posicionado en un ranking</t>
+          <t>Megaproyecto. Quién es el empresario que saldrá a buscar US$400 millones para criar salmones</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/politica/el-intendente-que-se-peleo-con-los-supermercadistas-por-las-tasas-quedo-como-el-peor-posicionado-en-nid19092024/</t>
+          <t>/economia/campo/megaproyecto-quien-es-el-empresario-que-quiere-conseguir-us400-millones-para-criar-salmones-en-la-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>"Según el siniestro, hoy sería $7320". El ofensivo mensaje de Milei contra Larreta y Lousteau por el precio del dólar</t>
+          <t>“Megacausa”. Revés judicial para una maniobra del condenado exgobernador Urrribarri y su abogado Burlando</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/politica/javier-milei-en-vivo-las-ultimas-medidas-del-gobierno-nid19092024/</t>
+          <t>/politica/reves-judicial-para-una-maniobra-del-condenado-exgobernador-urrribari-y-su-abogado-burlando-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>El video se viralizó. Amalia Granata presentó una demanda contra la reforma previsional y fue ovacionada</t>
+          <t>Tras los días de tensión. Guillermo Francos empoderó a su segundo, mientras persisten diferencias en la cúpula del Gobierno</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/politica/amalia-granata-presento-una-demanda-contra-la-reforma-previsional-y-fue-ovacionada-nid19092024/</t>
+          <t>/politica/guillermo-francos-tras-los-dias-de-tension-empodero-a-su-segundo-mientras-persisten-diferencias-en-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Entre Milei, Lousteau y "el centro". El rostro de la última crisis del radicalismo</t>
+          <t>El video se viralizó. Amalia Granata presentó una demanda contra la reforma previsional y fue ovacionada</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/politica/rodrigo-de-loredo-entre-milei-lousteau-y-el-centro-el-rostro-de-la-ultima-crisis-del-radicalismo-nid19092024/</t>
+          <t>/politica/amalia-granata-presento-una-demanda-contra-la-reforma-previsional-y-fue-ovacionada-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>“Es escandaloso”. Duro informe de la ONU sobre la situación de los chicos argentinos y las políticas de niñez del Gobierno</t>
+          <t>Hacedores. La historia del matrimonio que creó Prüne, la marca de carteras argentina más elegida por los extranjeros</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/sociedad/es-escandaloso-duro-informe-de-naciones-unidas-sobre-la-situacion-de-los-chicos-argentinos-y-las-nid19092024/</t>
+          <t>/economia/negocios/la-historia-del-matrimonio-que-creo-prune-la-marca-de-carteras-argentina-mas-elegida-por-los-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ya no es el cambio. La nueva razón por la que los chilenos eligen cruzar a Mendoza para pasear y descansar</t>
+          <t>Alerta en Córdoba. Hay cuatro focos de incendios activos y una ruta cortada en el Valle de Punilla</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/sociedad/ya-no-es-el-cambio-la-nueva-razon-por-la-que-los-chilenos-eligen-cruzar-a-mendoza-para-descansar-y-nid19092024/</t>
+          <t>/sociedad/alerta-en-cordoba-hay-cuatro-focos-de-incendios-activos-y-una-ruta-cortada-en-el-valle-de-punilla-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Una vida de película. Diseñó para Boca y River y rompió con lo establecido: de Maradona y Chilavert a la camiseta que Bilardo no se animó a usar</t>
+          <t>Ciudad. La Legislatura autorizó a Fernán Quirós a endeudarse por hasta US$ 85 millones para modernizar el sistema de salud</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/deportes/futbol/la-historia-de-pelicula-de-oscar-tubio-el-creador-de-las-4-estrellitas-de-boca-y-el-leon-de-river-su-nid19092024/</t>
+          <t>/sociedad/agenda-digital-la-ciudad-podra-endeudarse-por-hasta-us-85-millones-para-modernizar-el-sistema-de-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Horror en Italia. Una turista de 30 años caminaba por Nápoles, una estatua le cayó en la cabeza y murió</t>
+          <t>Buscaba su verdadera identidad. Murió Guillermo, el hermano de Beatriz Salomón</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/el-mundo/horror-en-italia-una-turista-de-30-anos-caminaba-por-napoles-una-estatua-le-cayo-en-la-cabeza-y-nid19092024/</t>
+          <t>/espectaculos/murio-el-hermano-de-beatriz-salomon-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>"Creo que me mataste". El inesperado despiste de Advíncula antes del superclásico entre Boca y River</t>
+          <t>Valores de referencia. Cuánto saldrá veranear en la costa</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/deportes/futbol/el-curioso-despiste-de-luis-advincula-en-la-previa-del-superclasico-ni-sabia-que-existia-eso-nid19092024/</t>
+          <t>/sociedad/valores-de-referencia-cuanto-saldra-vacacionar-en-la-costa-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>“No tenían idea”. La audiencia sobre el desastre del Titán contradice una extendida teoría sobre la muerte de los tripulantes</t>
+          <t>Horror en Italia. Una turista de 30 años caminaba por Nápoles, una estatua le cayó en la cabeza y murió</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/el-mundo/la-audiencia-sobre-el-desastre-del-titan-contradice-una-extendida-teoria-sobre-la-muerte-de-los-nid19092024/</t>
+          <t>/el-mundo/horror-en-italia-una-turista-de-30-anos-caminaba-por-napoles-una-estatua-le-cayo-en-la-cabeza-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Violencia de género. Cómo son los videos por los que San Lorenzo le pidió la renuncia a Ortigoza</t>
+          <t>Impasable. El español que le cerró el arco a Retegui: las dos atajadas enormes para salvar a Arsenal en la Champions</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/deportes/futbol/san-lorenzo/como-son-los-videos-por-los-que-san-lorenzo-le-pidio-la-renuncia-a-nestor-ortigoza-nid19092024/</t>
+          <t>/deportes/futbol/champions-league-la-noche-en-la-que-mateo-retegui-no-pudo-festejar-ni-siquiera-de-penal-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>“Tuve una experiencia muy fuerte, me sentí como nunca". Viaje a los misterios de Medjugorje, entre dos colinas de Bosnia y Herzegovina</t>
+          <t>Novedades. Eltrece se despide de algunos programas, los detalles del Martín Fierro Latino 2024 y el festejo de Radio con Vos</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/salud/los-misterios-de-medjugorje-entre-dos-colinas-de-bosnia-nid04082024/</t>
+          <t>/espectaculos/eltrece-se-despide-de-algunos-programas-los-detalles-del-martin-fierro-latino-2024-y-el-festejo-de-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Crisis en Venezuela. Qué ganan China, Rusia e Irán ayudando a Nicolás Maduro a mantenerse en el poder</t>
+          <t>Premios a la innovación VISA-LA NACION. Se reconocerá por primera vez a los líderes con visión de futuro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/el-mundo/que-ganan-china-rusia-e-iran-ayudando-a-nicolas-maduro-a-mantenerse-en-el-poder-en-venezuela-nid19092024/</t>
+          <t>/economia/premios-a-la-innovacion-visa-la-nacion-se-reconocera-por-primera-vez-a-los-lideres-con-vision-de-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Contundente. La reacción de Pampita al mensaje con el que Roberto García Moritán desmintió la separación</t>
+          <t>"Honrar nuestros cuerpos". Melania Trump defiende su trabajo como modelo de desnudos en su campaña para promocionar sus memorias</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/espectaculos/la-reaccion-de-pampita-al-mensaje-con-el-que-roberto-garcia-moritan-desmintio-la-separacion-nid19092024/</t>
+          <t>/estados-unidos/melania-trump-defiende-su-trabajo-como-modelo-de-desnudos-en-su-campana-para-promocionar-sus-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>En fotos. De la escapada romántica de Chris Pine a Portofino a la complicidad de George Clooney y Brad Pitt</t>
+          <t>Incitación a la violencia. Otro revés para el periodista Roberto Navarro en su juicio contra Eduardo Feinmann</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/en-fotos-de-la-escapada-romantica-de-chris-pine-a-portofino-a-la-complicidad-de-george-clooney-y-nid19092024/</t>
+          <t>/politica/otro-reves-para-el-periodista-roberto-navarro-en-su-juicio-contra-eduardo-feinmann-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>"Chirola" Scolni. Lo querían River y Newell's, eligió el rugby y afirma que jugar al básquet es clave para triunfar</t>
+          <t>En fotos. De la escapada romántica de Chris Pine a Portofino a la complicidad de George Clooney y Brad Pitt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/deportes/rugby/alejandro-chirola-scolni-lo-querian-river-y-newells-eligio-el-rugby-y-dice-que-jugar-al-basquet-es-nid19092024/</t>
+          <t>/espectaculos/personajes/en-fotos-de-la-escapada-romantica-de-chris-pine-a-portofino-a-la-complicidad-de-george-clooney-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sobre la hora. El desaforado festejo de Simeone por el agónico triunfo de Atlético de Madrid... con un solo argentino</t>
+          <t>"Chirola" Scolni. Lo querían River y Newell's, eligió el rugby y afirma que jugar al básquet es clave para triunfar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/deportes/futbol/champions-league-en-vivo-nid19092024/</t>
+          <t>/deportes/rugby/alejandro-chirola-scolni-lo-querian-river-y-newells-eligio-el-rugby-y-dice-que-jugar-al-basquet-es-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>"El túnel de los horrores". Di María brilló en una inesperada posición para el triunfo de Benfica en el infierno serbio</t>
+          <t>"Leyenda renacida". El rediseño de los autos de McLaren para el GP de Singapur en honor a la era del MP4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/deportes/futbol/champions-league-angel-di-maria-de-enganche-y-nicolas-otamendi-siempre-al-limite-en-el-infierno-de-nid19092024/</t>
+          <t>/deportes/automovilismo/el-rediseno-de-mclaren-para-el-gran-premio-de-singapur-en-honor-a-la-era-del-mp4-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Equipo confirmado. Los Pumas, con tres cambios tácticos, un posible debut y el desafío de recibir a los campeones del mundo</t>
+          <t>Sobre la hora. El desaforado festejo de Simeone por el agónico triunfo de Atlético de Madrid... con un solo argentino</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/deportes/rugby/los-pumas-con-tres-cambios-tacticos-un-posible-debut-y-el-desafio-de-recibir-a-los-campeones-del-nid19092024/</t>
+          <t>/deportes/futbol/champions-league-en-vivo-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>"Gracias por todo". El sentido mensaje de Paulo Dybala por el despido de Daniele De Rossi como DT de Roma</t>
+          <t>Plan de fin de semana. El coqueto restaurante de campo que acaba de abrir en un pueblo gastronómico</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/deportes/futbol/paulo-dybala-y-su-sentido-mensaje-por-el-despido-de-daniele-de-rossi-como-dt-de-roma-el-futbol-a-nid19092024/</t>
+          <t>/revista-lugares/un-nuevo-restaurante-de-campo-con-detalles-esteticos-excelentes-platos-y-atencion-de-lujo-nid15092024/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Plan de fin de semana. El coqueto restaurante de campo que acaba de abrir en un pueblo gastronómico</t>
+          <t>“Me generó un conflicto interno”. El lamento de David Schwimmer por rechazar el rol que podría haberlo convertido en una estrella</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/revista-lugares/un-nuevo-restaurante-de-campo-con-detalles-esteticos-excelentes-platos-y-atencion-de-lujo-nid15092024/</t>
+          <t>/espectaculos/personajes/el-lamento-de-david-schwimmer-por-rechazar-el-rol-que-lo-hubiera-convertido-en-estrella-de-cine-me-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>“Me generó un conflicto interno”. El lamento de David Schwimmer por rechazar el rol que podría haberlo convertido en una estrella</t>
+          <t>Neuquén. Se conoció el resultado de la autopsia del hombre hallado en el lago Falkner</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/el-lamento-de-david-schwimmer-por-rechazar-el-rol-que-lo-hubiera-convertido-en-estrella-de-cine-me-nid19092024/</t>
+          <t>/sociedad/neuquen-se-conocio-el-resultado-de-la-autopsia-del-hombre-hallado-en-el-lago-falkner-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Neuquén. Se conoció el resultado de la autopsia del hombre hallado en el lago Falkner</t>
+          <t>El rey de los estafadores. Inventó un país en América y engañó a cientos, pero descansa como héroe en la Catedral de Caracas</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/sociedad/neuquen-se-conocio-el-resultado-de-la-autopsia-del-hombre-hallado-en-el-lago-falkner-nid19092024/</t>
+          <t>/lifestyle/el-rey-de-los-estafadores-invento-un-pais-en-america-y-engano-a-cientos-pero-descansa-como-heroe-en-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>El rey de los estafadores. Inventó un país en América y engañó a cientos, pero descansa como héroe en la Catedral de Caracas</t>
+          <t>“Tuve una experiencia muy fuerte, me sentí como nunca". Viaje a los misterios de Medjugorje, entre dos colinas de Bosnia y Herzegovina</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/lifestyle/el-rey-de-los-estafadores-invento-un-pais-en-america-y-engano-a-cientos-pero-descansa-como-heroe-en-nid19092024/</t>
+          <t>/salud/los-misterios-de-medjugorje-entre-dos-colinas-de-bosnia-nid04082024/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>El chef es argentino. Cómo es por dentro el hotel elegido como el mejor del mundo en los World´s 50 Best</t>
+          <t>Todos los montos. Cuánto cobra de impuestos cada provincia en las transferencias de autos</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/propiedades/inmuebles-comerciales/como-es-por-dentro-el-hotel-elegido-como-el-mejor-del-mundo-y-que-tiene-un-chef-argentino-con-tres-nid18092024/</t>
+          <t>/autos/provincia-por-provincia-cuanto-cobran-de-impuestos-en-las-transferencias-de-autos-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Conmoción en Brasil. Se conocieron las imágenes previas al secuestro de las hermanas que fueron torturadas y asesinadas</t>
+          <t>Quita 10 puntos del scoring. Quienes no cumplan con esta regla de tránsito deberán pagar más de $ 470.000 de multa</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/el-mundo/conmocion-en-brasil-por-el-video-previo-al-secuestro-de-las-hermanas-que-fueron-torturadas-y-nid18092024/</t>
+          <t>/autos/quienes-no-cumplan-con-esta-regla-de-transito-deberan-pagar-mas-de-470000-de-multa-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Quita 10 puntos del scoring. Quienes no cumplan con esta regla de tránsito deberán pagar más de $ 470.000 de multa</t>
+          <t>Masterclass. Cómo actualizar y decorar un departamento de líneas netas con un estilo que lo realce, pero no pase de moda</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/autos/quienes-no-cumplan-con-esta-regla-de-transito-deberan-pagar-mas-de-470000-de-multa-nid19092024/</t>
+          <t>/revista-living/masterclass-como-actualizar-y-decorar-un-departamento-de-lineas-netas-con-un-estilo-que-lo-realce-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Masterclass. Cómo actualizar y decorar un departamento de líneas netas con un estilo que lo realce, pero no pase de moda</t>
+          <t>"Me sorprende viajar en el tiempo". Los países vecinos que comparten el nombre y en los que es posible ir al pasado o al futuro en 30 minutos</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/revista-living/masterclass-como-actualizar-y-decorar-un-departamento-de-lineas-netas-con-un-estilo-que-lo-realce-nid19092024/</t>
+          <t>/el-mundo/los-paises-vecinos-que-comparten-el-nombre-y-en-los-que-es-posible-viajar-al-pasado-o-al-futuro-en-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>“Obscena”. En la Mesa de Enlace alertaron que el campo no tiene tiempo para esperar una baja de las retenciones</t>
+          <t>Alerta en Santa Fe. La provincia busca controlar la superpoblación de una “plaga”</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/economia/campo/obscena-en-la-mesa-de-enlace-alertaron-que-el-campo-no-tiene-tiempo-para-esperar-una-baja-de-las-nid19092024/</t>
+          <t>/sociedad/alerta-en-santa-fe-la-provincia-busca-controlar-la-superpoblacion-de-una-plaga-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mansión Álzaga Unzué. Fue el regalo de casamiento más impactante de la época y se convirtió en hotel de lujo</t>
+          <t>Terrorífico. Una mujer de Tailandia fue estrangulada durante dos horas por una pitón gigante: ¿cómo la rescataron?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/revista-lugares/mansion-alzaga-unzue-el-palacete-que-fue-regalo-de-casamiento-y-se-convirtio-en-hotel-cinco-nid19092024/</t>
+          <t>/el-mundo/el-terrorifico-rescate-de-una-mujer-de-tailandia-que-estuvo-dos-horas-presa-de-una-piton-gigante-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Terrorífico. Una mujer de Tailandia fue estrangulada durante dos horas por una pitón gigante: ¿cómo la rescataron?</t>
+          <t>Guapo y varón. El desmesurado milonguero de infancia triste que conquistó, junto a un viejo amor, los escenarios del mundo</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/el-mundo/el-terrorifico-rescate-de-una-mujer-de-tailandia-que-estuvo-dos-horas-presa-de-una-piton-gigante-nid19092024/</t>
+          <t>/espectaculos/personajes/virulazo-el-desmesurado-milonguero-de-infancia-triste-que-conquisto-junto-a-un-viejo-amor-los-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Guapo y varón. El desmesurado milonguero de infancia triste que conquistó, junto a un viejo amor, los escenarios del mundo</t>
+          <t>"Todo el mundo afanaba, era un asco". Susana sin filtro: dice que no votó a Milei, que Alberto Fernández “es un mamarracho” y qué busca en un hombre hoy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/virulazo-el-desmesurado-milonguero-de-infancia-triste-que-conquisto-junto-a-un-viejo-amor-los-nid19092024/</t>
+          <t>/espectaculos/personajes/susana-intima-su-ansiada-vuelta-a-la-tv-el-miedo-a-la-muerte-y-la-invitacion-a-milei-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>“Era peligroso estar cerca de mí”. Tras años de distancia, Eric Roberts se disculpó públicamente con su hermana Julia</t>
+          <t>"Es hora de comenzar". El Juego del Calamar 2 ya tiene fecha de estreno y lanzó el primer y sangriento póster de adelanto</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/tras-anos-de-distancia-eric-roberts-se-disculpo-publicamente-con-su-hermana-julia-era-peligroso-nid19092024/</t>
+          <t>/espectaculos/el-juego-del-calamar-2-ya-tiene-fecha-de-estreno-y-lanzo-el-primer-y-muy-sangriento-poster-de-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>"Es hora de comenzar". El Juego del Calamar 2 ya tiene fecha de estreno y lanzó el primer y sangriento póster de adelanto</t>
+          <t>Princesa Amalia. La hija de Máxima deslumbró con su look y un accesorio con una historia muy especial</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/espectaculos/el-juego-del-calamar-2-ya-tiene-fecha-de-estreno-y-lanzo-el-primer-y-muy-sangriento-poster-de-nid19092024/</t>
+          <t>/revista-hola/la-princesa-amalia-deslumbro-con-su-look-y-un-accesorio-con-una-historia-muy-especial-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Princesa Amalia. La hija de Máxima deslumbró con su look y un accesorio con una historia muy especial</t>
+          <t>Perfil bajo. Empezó como modelo, se casó con un famoso periodista y un día le dijo “basta” a la TV</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/revista-hola/la-princesa-amalia-deslumbro-con-su-look-y-un-accesorio-con-una-historia-muy-especial-nid19092024/</t>
+          <t>/espectaculos/empezo-como-modelo-fue-una-de-las-secretarias-mas-buscadas-y-un-dia-le-dijo-basta-a-la-television-la-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Perfil bajo. Empezó como modelo, se casó con un famoso periodista y un día le dijo “basta” a la TV</t>
+          <t>“El ácido mejora todo”. Secretos para aprender a usar un fermentado olvidado que realza platos dulces y salados</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/espectaculos/empezo-como-modelo-fue-una-de-las-secretarias-mas-buscadas-y-un-dia-le-dijo-basta-a-la-television-la-nid19092024/</t>
+          <t>https://foodit.lanacion.com.ar/novedades-y-tendencias/secretos-para-aprender-a-usar-un-fermentado-olvidado-que-realza-platos-dulces-y-salados-el-acido-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Miami en baja. Las razones por las que menos argentinos invierten en propiedades</t>
+          <t>"Está que explota". El polo gastronómico trendy que se fue armando en uno de los barrios más top de la Ciudad</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/propiedades/inversiones/miami-las-razones-por-las-que-caen-las-inversiones-argentinas-en-propiedades-nid19092024/</t>
+          <t>/propiedades/inmuebles-comerciales/el-polo-gastronomico-trendy-que-se-va-armando-en-uno-de-los-barrios-mas-top-de-la-ciudad-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gesta vecinal. La Legislatura aprobó la creación de un nuevo espacio verde en Núñez: dónde estará</t>
+          <t>"Es insólito". Los errores de la oposición que sostienen a Milei, según un consultor especialista en campañas electorales</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/sociedad/gesta-vecinal-la-legislatura-aprobo-la-creacion-de-un-nuevo-espacio-verde-en-nunez-nid19092024/</t>
+          <t>/politica/pablo-touzon-es-insolito-creer-que-esta-oposicion-que-lo-trajo-a-milei-es-la-que-lo-va-a-sacar-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Con tobillera electrónica. Así fue el controversial debut de la exconvicta Anna Delvey en Dancing with the Stars</t>
+          <t>Trivia. ¿Cuánto sabés sobre Selva Alemán?</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/espectaculos/asi-fue-el-debut-de-la-exconvicta-anna-delvey-en-dancing-with-the-stars-tobillera-electrica-y-un-nid19092024/</t>
+          <t>/juegos/trivias/trivia-exclusiva-cuanto-sabes-sobre-selva-aleman-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Comercio. Desde Italia le piden a la UE una transición de dos años para la entrada en vigor de su política antideforestación</t>
+          <t>Jivamukti. La práctica de yoga que conecta con la conciencia y es un estilo de vida</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/economia/campo/desde-italia-le-piden-a-la-ue-una-transicion-de-dos-anos-para-la-entrada-en-vigor-de-su-politica-nid19092024/</t>
+          <t>/salud/fitness/jivamukti-la-practica-de-yoga-que-conecta-con-la-conciencia-y-es-un-estilo-de-vida-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>“El ácido mejora todo”. Secretos para aprender a usar un fermentado olvidado que realza platos dulces y salados</t>
+          <t>Nueva tormenta. Qué pasará con las lluvias y por qué en una región del país hay incertidumbre</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://foodit.lanacion.com.ar/novedades-y-tendencias/secretos-para-aprender-a-usar-un-fermentado-olvidado-que-realza-platos-dulces-y-salados-el-acido-nid19092024/</t>
+          <t>/economia/campo/se-viene-la-tormenta-como-seran-las-lluvias-y-por-que-en-una-region-del-pais-hay-incertidumbre-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>"Está que explota". El polo gastronómico trendy que se fue armando en uno de los barrios más top de la Ciudad</t>
+          <t>Anuncio. El Gobierno autorizó un cambio en la importación de conejos como animales de compañía: qué trámite hay que hacer</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/propiedades/inmuebles-comerciales/el-polo-gastronomico-trendy-que-se-va-armando-en-uno-de-los-barrios-mas-top-de-la-ciudad-nid18092024/</t>
+          <t>/economia/campo/el-gobierno-autorizo-la-importacion-de-conejos-para-animales-de-compania-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"Es insólito". Los errores de la oposición que sostienen a Milei, según un consultor especialista en campañas electorales</t>
+          <t>Emprendedor. Su padre vendía repuestos para heladeras y un día le hizo una pregunta que revolucionó todo: hoy maneja miles de hectáreas</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/politica/pablo-touzon-es-insolito-creer-que-esta-oposicion-que-lo-trajo-a-milei-es-la-que-lo-va-a-sacar-nid18092024/</t>
+          <t>/economia/campo/emprendedor-su-padre-vendia-repuestos-para-heladeras-y-un-dia-le-hizo-una-pregunta-que-revoluciono-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Trivia. ¿Cuánto sabés sobre Selva Alemán?</t>
+          <t>“Rompimos la barrera”. Un remate ganadero televisado marcó un precio récord a nivel nacional</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/juegos/trivias/trivia-exclusiva-cuanto-sabes-sobre-selva-aleman-nid18092024/</t>
+          <t>/economia/campo/rompimos-la-barrera-un-remate-ganadero-televisado-marco-un-precio-record-a-nivel-nacional-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Jivamukti. La práctica de yoga que conecta con la conciencia y es un estilo de vida</t>
+          <t>Para enviar por WhatsApp. 150 frases por el Día de la Primavera para enviar a los seres queridos</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/salud/fitness/jivamukti-la-practica-de-yoga-que-conecta-con-la-conciencia-y-es-un-estilo-de-vida-nid19092024/</t>
+          <t>/tecnologia/150-frases-por-el-dia-de-la-primavera-para-enviar-por-whatsapp-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nueva tormenta. Qué pasará con las lluvias y por qué en una región del país hay incertidumbre</t>
+          <t>Llega la primavera. Cómo activar el “modo flores amarillas” en WhatsApp</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/economia/campo/se-viene-la-tormenta-como-seran-las-lluvias-y-por-que-en-una-region-del-pais-hay-incertidumbre-nid18092024/</t>
+          <t>/tecnologia/como-activar-el-modo-flores-amarillas-en-whatsapp-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Anuncio. El Gobierno autorizó un cambio en la importación de conejos como animales de compañía: qué trámite hay que hacer</t>
+          <t>Según la IA. Así se vería el Gato con Botas en la vida real</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/economia/campo/el-gobierno-autorizo-la-importacion-de-conejos-para-animales-de-compania-nid19092024/</t>
+          <t>/tecnologia/asi-se-veria-el-gato-con-botas-en-la-vida-real-segun-la-inteligencia-artificial-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Emprendedor. Su padre vendía repuestos para heladeras y un día le hizo una pregunta que revolucionó todo: hoy maneja miles de hectáreas</t>
+          <t>¿Quién compra hoy un pasaje en Aerolíneas Argentinas?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/economia/campo/emprendedor-su-padre-vendia-repuestos-para-heladeras-y-un-dia-le-hizo-una-pregunta-que-revoluciono-nid18092024/</t>
+          <t>/economia/quien-compra-hoy-un-pasaje-en-aerolineas-argentinas-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>“Rompimos la barrera”. Un remate ganadero televisado marcó un precio récord a nivel nacional</t>
+          <t>La cabeza de un inversor, entre el entusiasmo y la desconfianza</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/economia/campo/rompimos-la-barrera-un-remate-ganadero-televisado-marco-un-precio-record-a-nivel-nacional-nid19092024/</t>
+          <t>/opinion/la-cabeza-de-un-inversor-entre-el-entusiasmo-y-el-miedo-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Atención. Un malware infectó 1,3 millones de equipos con Android TV, incluyendo decenas de miles en Argentina</t>
+          <t>Milei, la larga marcha de nerd a rosquero argento</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/tecnologia/cuidado-descubren-malware-en-13-millones-de-equipos-con-android-tv-incluyendo-decenas-de-miles-en-nid19092024/</t>
+          <t>/opinion/milei-la-larga-marcha-de-nerd-a-rosquero-argento-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Para enviar por WhatsApp. 150 frases por el Día de la Primavera para enviar a los seres queridos</t>
+          <t>La defensa del público es su libre elección</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/tecnologia/150-frases-por-el-dia-de-la-primavera-para-enviar-por-whatsapp-nid19092024/</t>
+          <t>/editoriales/la-defensa-del-publico-es-su-libre-eleccion-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Llega la primavera. Cómo activar el “modo flores amarillas” en WhatsApp</t>
+          <t>Un plan contra la prensa libre</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/tecnologia/como-activar-el-modo-flores-amarillas-en-whatsapp-nid18092024/</t>
+          <t>/editoriales/un-plan-contra-la-prensa-libre-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>¿Quién compra hoy un pasaje en Aerolíneas Argentinas?</t>
+          <t>Premios y castigos del presupuesto mileísta</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/economia/quien-compra-hoy-un-pasaje-en-aerolineas-argentinas-nid18092024/</t>
+          <t>/opinion/premios-y-castigos-del-presupuesto-mileista-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>La cabeza de un inversor, entre el entusiasmo y la desconfianza</t>
+          <t>De qué murió el actor Daniel Fanego</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/opinion/la-cabeza-de-un-inversor-entre-el-entusiasmo-y-el-miedo-nid18092024/</t>
+          <t>/espectaculos/de-que-murio-el-actor-daniel-fanego-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Milei, la larga marcha de nerd a rosquero argento</t>
+          <t>Qué dijo. Ángel de Brito contó el verdadero motivo de la crisis entre Pampita y Roberto García Moritán</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/opinion/milei-la-larga-marcha-de-nerd-a-rosquero-argento-nid18092024/</t>
+          <t>/espectaculos/angel-de-brito-conto-el-verdadero-motivo-de-la-crisis-entre-pampita-y-roberto-garcia-moritan-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>La defensa del público es su libre elección</t>
+          <t>Rico y elegante. Anto Roccuzzo mostró cuál es su perfume favorito y sus fans fueron a comprarlo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/editoriales/la-defensa-del-publico-es-su-libre-eleccion-nid19092024/</t>
+          <t>/espectaculos/antonela-roccuzzo-mostro-cual-es-el-perfume-que-la-acompana-en-cada-momento-del-dia-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Un plan contra la prensa libre</t>
+          <t>En el Ecoparque. En medio de los rumores de separación, Pampita se mostró muy bien acompañada</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/editoriales/un-plan-contra-la-prensa-libre-nid19092024/</t>
+          <t>/espectaculos/en-medio-de-los-rumores-de-separacion-pampita-se-mostro-muy-bien-acompanada-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Premios y castigos del presupuesto mileísta</t>
+          <t>No es la miel. El endulzante natural que ayuda a proteger la memoria</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/opinion/premios-y-castigos-del-presupuesto-mileista-nid19092024/</t>
+          <t>/lifestyle/cuidado-cuerpo-belleza/el-endulzante-natural-que-ayuda-a-proteger-la-memoria-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Impactante y viral. El video furor que muestra a un supuesto Adam Sandler en San Juan</t>
+          <t>Según una investigación. Qué es el “tercer estado” que sucede entre la vida y la muerte</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/lifestyle/en-las-redes/el-video-furor-que-muestra-a-un-supuesto-adam-sandler-en-san-juan-nid19092024/</t>
+          <t>/lifestyle/en-las-redes/que-es-el-tercer-estado-que-sucede-entre-la-vida-y-la-muerte-segun-una-investigacion-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Versiones cruzadas. Qué dijo Roberto García Moritán al romper el silencio en medio de los rumores de separación con Pampita</t>
+          <t>No fallan. ⁠Cinco trucos japoneses para dormir bien y despertar feliz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/espectaculos/roberto-garcia-moritan-rompio-el-silencio-en-medio-de-los-rumores-de-separacion-con-pampita-nid19092024/</t>
+          <t>/lifestyle/en-las-redes/los-mejores-trucos-japoneses-para-dormir-bien-y-despertar-feliz-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cómo hizo. Pedía monedas en la calle y creó una estrategia para ser millonario</t>
+          <t>Terrorífico. Una mujer de Tailandia fue estrangulada durante dos horas por una pitón gigante: ¿cómo la rescataron?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/lifestyle/en-las-redes/pedia-monedas-en-la-calle-y-creo-una-estrategia-para-ser-millonario-nid19092024/</t>
+          <t>/el-mundo/el-terrorifico-rescate-de-una-mujer-de-tailandia-que-estuvo-dos-horas-presa-de-una-piton-gigante-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No fallan. ⁠Cinco trucos japoneses para dormir bien y despertar feliz</t>
+          <t>Otra amenaza de paro. Se unen todos los gremios del transporte para rechazar la eventual privatización de Aerolíneas</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/lifestyle/en-las-redes/los-mejores-trucos-japoneses-para-dormir-bien-y-despertar-feliz-nid19092024/</t>
+          <t>/politica/se-unen-todos-los-gremios-del-transporte-para-rechazar-la-eventual-privatizacion-de-aerolineas-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>En el Ecoparque. En medio de los rumores de separación, Pampita se mostró muy bien acompañada</t>
+          <t>Ya no es el cambio. La nueva razón por la que los chilenos eligen cruzar a Mendoza para pasear y descansar</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/espectaculos/en-medio-de-los-rumores-de-separacion-pampita-se-mostro-muy-bien-acompanada-nid19092024/</t>
+          <t>/sociedad/ya-no-es-el-cambio-la-nueva-razon-por-la-que-los-chilenos-eligen-cruzar-a-mendoza-para-descansar-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Según la psicología. Qué significa que una persona revise constantemente si cerró la puerta de su casa</t>
+          <t>Perfil bajo. Empezó como modelo, se casó con un famoso periodista y un día le dijo “basta” a la TV</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/lifestyle/en-las-redes/que-significa-que-una-persona-revise-constantemente-si-cerro-la-puerta-de-su-casa-segun-la-nid19092024/</t>
+          <t>/espectaculos/empezo-como-modelo-fue-una-de-las-secretarias-mas-buscadas-y-un-dia-le-dijo-basta-a-la-television-la-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>“Es hermosa”. Carmen sorprendió a Guido Ksczka: interrumpió Los 8 escalones y se mandó con un pedido particular</t>
+          <t>Por debajo de la inflación. El Gobierno oficializó un aumento para los empleados estatales</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/espectaculos/carmen-barbieri-sorprendio-a-guido-ksczka-interrumpio-los-8-escalones-y-se-mando-con-un-pedido-nid19092024/</t>
+          <t>/politica/el-gobierno-oficializo-un-aumento-para-los-empleados-de-la-administracion-publica-nacional-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Otra amenaza de paro. Se unen todos los gremios del transporte para rechazar la eventual privatización de Aerolíneas</t>
+          <t>HÁBITA Freire. La nueva joya verde de Belgrano R</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/politica/se-unen-todos-los-gremios-del-transporte-para-rechazar-la-eventual-privatizacion-de-aerolineas-nid19092024/</t>
+          <t>/propiedades/habita-freire-la-nueva-joya-verde-de-belgrano-r-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Más de 6 horas de audiencia. “Vi cómo Alberto empujó a mi hija cuando estaba embarazada”, declaró la madre de Fabiola Yañez</t>
+          <t>Un DT "recargado". Cómo ve Almirón la revancha ante River, su salida en silencio de Boca y el jugador suyo que iría al Xeneize</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/politica/la-madre-de-fabiola-yanez-llego-a-los-tribunales-para-declarar-en-la-causa-por-violencia-de-genero-nid19092024/</t>
+          <t>/deportes/futbol/jorge-almiron-dt-de-colo-colo-como-imagina-la-revancha-con-river-y-si-ahora-cree-que-le-valoran-mas-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Inesperado. Los fuertes motivos de la separación de Pampita y Roberto García Moritán, según LAM</t>
+          <t>A nivel mundial. Destacan a /q99, la startup argentina que busca popularizar la computación cuántica</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/espectaculos/los-fuertes-motivos-de-la-separacion-de-pampita-y-roberto-garcia-moritan-segun-lam-nid19092024/</t>
+          <t>/tecnologia/destacan-a-q99-la-startup-argentina-que-busca-popularizar-la-computacion-cuantica-en-la-region-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Quita 10 puntos del scoring. Quienes no cumplan con esta regla de tránsito deberán pagar más de $ 470.000 de multa</t>
+          <t>Hecho en Argentina. Nació en Viena, emigró a la Argentina, estudió química y fundó una marca líder en dermocosmética</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/autos/quienes-no-cumplan-con-esta-regla-de-transito-deberan-pagar-mas-de-470000-de-multa-nid19092024/</t>
+          <t>/economia/lidherma-nacio-en-viena-emigro-a-la-argentina-estudio-quimica-y-fundo-una-marca-lider-en-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>"Se hartó". Yanina Latorre dijo que Pampita y Roberto García Moritán están separados: todos los detalles</t>
+          <t>Desde el pozo. El Banco Hipotecario otorga el primer crédito hipotecario para departamentos en construcción</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/espectaculos/yanina-latorre-conto-todo-sobre-la-separacion-de-pampita-y-roberto-garcia-moritan-nid18092024/</t>
+          <t>/economia/negocios/desde-el-pozo-el-banco-que-otorga-el-primer-credito-hipotecario-para-departamentos-en-construccion-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HÁBITA Freire. La nueva joya verde de Belgrano R</t>
+          <t>El fenómeno pop de Sabrina Carpenter. La chica que admiraba a Taylor Swift, se convirtió en su amiga y hoy busca destronarla</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/propiedades/habita-freire-la-nueva-joya-verde-de-belgrano-r-nid19092024/</t>
+          <t>/espectaculos/musica/el-fenomeno-pop-de-sabrina-carpenter-la-chica-que-admiraba-a-taylor-swift-se-convirtio-en-su-amiga-y-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Un DT "recargado". Cómo ve Almirón la revancha ante River, su salida en silencio de Boca y el jugador suyo que iría al Xeneize</t>
+          <t>"Es una mujer increíble”. Don Johnson, muy enamorado, reveló las tres claves de sus 25 años de matrimonio con Kelley Phleger</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/deportes/futbol/jorge-almiron-dt-de-colo-colo-como-imagina-la-revancha-con-river-y-si-ahora-cree-que-le-valoran-mas-nid19092024/</t>
+          <t>/espectaculos/personajes/don-johnson-muy-enamorado-revelo-las-tres-claves-de-sus-25-anos-de-matrimonio-con-kelley-phleger-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A nivel mundial. Destacan a /q99, la startup argentina que busca popularizar la computación cuántica</t>
+          <t>En fotos. Mientras Demi Moore y Colin Farrell se pasearon con sus hijos, Halle Berry se lució con un impactante vestido</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/tecnologia/destacan-a-q99-la-startup-argentina-que-busca-popularizar-la-computacion-cuantica-en-la-region-nid19092024/</t>
+          <t>/espectaculos/personajes/en-fotos-mientras-demi-moore-y-colin-farrell-se-pasearon-con-sus-hijos-halle-berry-se-lucio-con-un-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hecho en Argentina. Nació en Viena, emigró a la Argentina, estudió química y fundó una marca líder en dermocosmética</t>
+          <t>Mario Alonso Puig. el gurú mundial del bienestar explicó cómo sentir felicidad pese a los problemas</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/economia/lidherma-nacio-en-viena-emigro-a-la-argentina-estudio-quimica-y-fundo-una-marca-lider-en-nid19092024/</t>
+          <t>/salud/mario-alonso-puig-el-amor-es-la-unica-fuerza-capaz-de-sanar-nuestras-heridas-mas-profundas-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Desde el pozo. El Banco Hipotecario otorga el primer crédito hipotecario para departamentos en construcción</t>
+          <t>Comer o no comer huevos. Cuántos se recomiendan por día y ¿aumentan el colesterol?</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>/economia/negocios/desde-el-pozo-el-banco-que-otorga-el-primer-credito-hipotecario-para-departamentos-en-construccion-nid18092024/</t>
+          <t>/salud/nutricion/los-beneficios-del-huevo-nid10022023/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>El fenómeno pop de Sabrina Carpenter. La chica que admiraba a Taylor Swift, se convirtió en su amiga y hoy busca destronarla</t>
+          <t>¿Dolor de articulaciones?. Descubrí cómo el colágeno tipo II puede mejorar la movilidad y la fuerza</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>/espectaculos/musica/el-fenomeno-pop-de-sabrina-carpenter-la-chica-que-admiraba-a-taylor-swift-se-convirtio-en-su-amiga-y-nid19092024/</t>
+          <t>/salud/dolor-de-articulaciones-descubri-como-el-colageno-tipo-ii-puede-mejorar-la-movilidad-y-la-fuerza-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>"Es una mujer increíble”. Don Johnson, muy enamorado, reveló las tres claves de sus 25 años de matrimonio con Kelley Phleger</t>
+          <t>Conrado Estol. El especialista reveló cuál es la edad en la que el cerebro se achica y qué hacer para no perder memoria</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/don-johnson-muy-enamorado-revelo-las-tres-claves-de-sus-25-anos-de-matrimonio-con-kelley-phleger-nid19092024/</t>
+          <t>/salud/vida_sana/cual-es-la-edad-en-la-que-el-cerebro-disminuye-10-su-volumen-y-como-mantener-la-mente-activa-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>En fotos. Mientras Demi Moore y Colin Farrell se pasearon con sus hijos, Halle Berry se lució con un impactante vestido</t>
+          <t>Hay un nuevo formulario. Registro Automotor: ya se puede inscribir un auto en cualquier lugar y elegir qué impuesto pagar</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>/espectaculos/personajes/en-fotos-mientras-demi-moore-y-colin-farrell-se-pasearon-con-sus-hijos-halle-berry-se-lucio-con-un-nid18092024/</t>
+          <t>/autos/registro-automotor-ya-se-puede-inscribir-un-0km-en-cualquier-lugar-y-elegir-que-impuesto-pagar-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mario Alonso Puig. el gurú mundial del bienestar explicó cómo sentir felicidad pese a los problemas</t>
+          <t>Se amplía la gama. Qué traen y cuánto cuestan las nuevas versiones de la Amarok que sumó Volkswagen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>/salud/mario-alonso-puig-el-amor-es-la-unica-fuerza-capaz-de-sanar-nuestras-heridas-mas-profundas-nid18092024/</t>
+          <t>/autos/que-traen-y-cuanto-cuestan-las-nuevas-versiones-de-la-amarok-que-sumo-volkswagen-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Comer o no comer huevos. Cuántos se recomiendan por día y ¿aumentan el colesterol?</t>
+          <t>"Abre una puerta". Todo sobre la nueva pick up de Renault: por qué puede transformar a la marca, según su CEO regional</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>/salud/nutricion/los-beneficios-del-huevo-nid10022023/</t>
+          <t>/autos/por-que-la-nueva-pick-up-abre-una-puerta-para-renault-en-la-argentina-segun-su-ceo-regional-nid17092024/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>¿Dolor de articulaciones?. Descubrí cómo el colágeno tipo II puede mejorar la movilidad y la fuerza</t>
+          <t>Más híbridos. Lexus lanzó dos nuevos SUV: cómo son y cuánto cuestan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>/salud/dolor-de-articulaciones-descubri-como-el-colageno-tipo-ii-puede-mejorar-la-movilidad-y-la-fuerza-nid19092024/</t>
+          <t>/autos/lexus-lanzo-dos-nuevos-suv-de-lujo-como-son-y-cuanto-cuestan-nid16092024/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Conrado Estol. El especialista reveló cuál es la edad en la que el cerebro se achica y qué hacer para no perder memoria</t>
+          <t>Alquileres para el verano. cuánto cuesta un departamento en Punta del Este</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>/salud/vida_sana/cual-es-la-edad-en-la-que-el-cerebro-disminuye-10-su-volumen-y-como-mantener-la-mente-activa-nid18092024/</t>
+          <t>/propiedades/casas-y-departamentos/punta-del-este-la-razon-por-la-que-quien-planea-ir-en-el-verano-tiene-que-alquilar-ya-nid16092024/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hay un nuevo formulario. Registro Automotor: ya se puede inscribir un auto en cualquier lugar y elegir qué impuesto pagar</t>
+          <t>Cuesta US$6000 por mes. Así es la antigua casa de Kamala Harris que está en alquiler</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>/autos/registro-automotor-ya-se-puede-inscribir-un-0km-en-cualquier-lugar-y-elegir-que-impuesto-pagar-nid18092024/</t>
+          <t>/propiedades/casas-y-departamentos/como-es-la-antigua-casa-de-kamala-harris-que-se-puede-alquilar-por-us6000-mensuales-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>"Abre una puerta". Todo sobre la nueva pick up de Renault: por qué puede transformar a la marca, según su CEO regional</t>
+          <t>Desbancó a Londres. La ciudad europea elegida por los millonarios para vivir</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>/autos/por-que-la-nueva-pick-up-abre-una-puerta-para-renault-en-la-argentina-segun-su-ceo-regional-nid17092024/</t>
+          <t>/propiedades/casas-y-departamentos/cual-es-la-ciudad-elegida-por-los-millonarios-para-vivir-nid17092024/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Más híbridos. Lexus lanzó dos nuevos SUV: cómo son y cuánto cuestan</t>
+          <t>Más de 500 metros de altura. Ayrton Senna tendrá un rascacielos en su honor: será el edificio residencial más alto del mundo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>/autos/lexus-lanzo-dos-nuevos-suv-de-lujo-como-son-y-cuanto-cuestan-nid16092024/</t>
+          <t>/propiedades/construccion-y-diseno/ayrton-senna-tendra-un-rascacielos-en-su-honor-sera-el-edificio-residencial-mas-alto-del-mundo-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Nuevos precios. Cuánto cuesta el Toyota Corolla este mes</t>
+          <t>Entrevista. Andrey Sizov: "El mercado mundial del trigo verá precios sustancialmente más altos"</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>/autos/cuanto-cuesta-el-toyota-corolla-en-septiembre-2024-luego-de-la-baja-del-impuesto-pais-nid14092024/</t>
+          <t>/economia/campo/agricultura/andrey-sizov-el-mercado-mundial-del-trigo-vera-precios-sustancialmente-mas-altos-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Alquileres para el verano. cuánto cuesta un departamento en Punta del Este</t>
+          <t>Colapinto en “modo campestre”. El video desconocido del piloto que se volvió sensación</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>/propiedades/casas-y-departamentos/punta-del-este-la-razon-por-la-que-quien-planea-ir-en-el-verano-tiene-que-alquilar-ya-nid16092024/</t>
+          <t>/economia/campo/colapinto-en-modo-campestre-el-video-desconocido-del-piloto-que-se-volvio-sensacion-nid17092024/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cuesta US$6000 por mes. Así es la antigua casa de Kamala Harris que está en alquiler</t>
+          <t>Mendoza. Un empresario bodeguero denunció una inédita ola de robos por US$60.000</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>/propiedades/casas-y-departamentos/como-es-la-antigua-casa-de-kamala-harris-que-se-puede-alquilar-por-us6000-mensuales-nid18092024/</t>
+          <t>/economia/campo/un-flagelo-un-empresario-bodeguero-denuncio-una-inedita-ola-de-robos-por-us60000-nid17092024/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Desbancó a Londres. La ciudad europea elegida por los millonarios para vivir</t>
+          <t>“Tenemos que esperar”. El secretario de Agricultura dijo hasta cuándo habrá retenciones y habló de lo “imposible” que hace el Gobierno</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>/propiedades/casas-y-departamentos/cual-es-la-ciudad-elegida-por-los-millonarios-para-vivir-nid17092024/</t>
+          <t>/economia/campo/tenemos-que-esperar-el-secretario-de-agricultura-dijo-hasta-cuando-habra-retenciones-y-hablo-de-lo-nid17092024/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Más de 500 metros de altura. Ayrton Senna tendrá un rascacielos en su honor: será el edificio residencial más alto del mundo</t>
+          <t>En fotos. Todos los invitados a la VII Comida Anual de Sanatorio Mater Dei en Puerto Madero</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>/propiedades/construccion-y-diseno/ayrton-senna-tendra-un-rascacielos-en-su-honor-sera-el-edificio-residencial-mas-alto-del-mundo-nid18092024/</t>
+          <t>/lifestyle/en-fotos-todos-los-invitados-a-la-vii-comida-anual-de-sanatorio-mater-dei-en-puerto-madero-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Entrevista. Andrey Sizov: "El mercado mundial del trigo verá precios sustancialmente más altos"</t>
+          <t>Bótox y ácido hialurónico: nuevos usos, precios y contraindicaciones de los tratamientos estéticos que más eligen las argentinas</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>/economia/campo/agricultura/andrey-sizov-el-mercado-mundial-del-trigo-vera-precios-sustancialmente-mas-altos-nid18092024/</t>
+          <t>/sabado/botox-y-acido-hialuronico-nuevos-usos-precios-y-contraindicaciones-de-los-tratamientos-esteticos-que-nid14092024/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Colapinto en “modo campestre”. El video desconocido del piloto que se volvió sensación</t>
+          <t>Teatro. 4 obras para reír y emocionarse</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>/economia/campo/colapinto-en-modo-campestre-el-video-desconocido-del-piloto-que-se-volvio-sensacion-nid17092024/</t>
+          <t>/espectaculos/teatro-4-obras-para-reir-y-emocionarse-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Mendoza. Un empresario bodeguero denunció una inédita ola de robos por US$60.000</t>
+          <t>Palacio Bosch. Su propietario no quería venderlo, pero lo hizo para guardar su palabra y hoy es una importante embajada</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>/economia/campo/un-flagelo-un-empresario-bodeguero-denuncio-una-inedita-ola-de-robos-por-us60000-nid17092024/</t>
+          <t>/revista-lugares/palacio-bosch-historia-y-secretos-de-la-residencia-del-embajador-de-estados-unidos-nid16092024/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>“Tenemos que esperar”. El secretario de Agricultura dijo hasta cuándo habrá retenciones y habló de lo “imposible” que hace el Gobierno</t>
+          <t>El color de la temporada. Las plantas con hojas o frutos de color bordó y dónde ubicarlas para tener éxito</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>/economia/campo/tenemos-que-esperar-el-secretario-de-agricultura-dijo-hasta-cuando-habra-retenciones-y-hablo-de-lo-nid17092024/</t>
+          <t>/revista-jardin/plantas-de-hojas-rojas-o-bordo-que-suman-color-a-tu-jardin-nid18092024/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>En fotos. Todos los invitados a la VII Comida Anual de Sanatorio Mater Dei en Puerto Madero</t>
+          <t>¿Sol o lluvias? Cómo estará el clima el Día de la Primavera</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>/lifestyle/en-fotos-todos-los-invitados-a-la-vii-comida-anual-de-sanatorio-mater-dei-en-puerto-madero-nid18092024/</t>
+          <t>/clima/como-estara-el-clima-el-dia-de-la-primavera-y-el-resto-del-fin-de-semana-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bótox y ácido hialurónico: nuevos usos, precios y contraindicaciones de los tratamientos estéticos que más eligen las argentinas</t>
+          <t>21 de septiembre. Qué pasa con el Día del Estudiante este año</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>/sabado/botox-y-acido-hialuronico-nuevos-usos-precios-y-contraindicaciones-de-los-tratamientos-esteticos-que-nid14092024/</t>
+          <t>/feriados/2024/feriados-de-septiembre-que-pasa-con-el-dia-del-estudiante-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Teatro. 4 obras para reír y emocionarse</t>
+          <t>A 6 años. Quiénes pueden acceder al crédito online para jubilados de hasta $20 millones</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>/espectaculos/teatro-4-obras-para-reir-y-emocionarse-nid19092024/</t>
+          <t>/economia/credito-online-quienes-pueden-acceder-al-credito-para-jubilados-de-hasta-20-millones-a-pagar-en-6-nid19092024/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Palacio Bosch. Su propietario no quería venderlo, pero lo hizo para guardar su palabra y hoy es una importante embajada</t>
+          <t>Según tu ascendente. Cómo impacta el Sol en conexión con Urano este fin de semana</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
-        <is>
-          <t>/revista-lugares/palacio-bosch-historia-y-secretos-de-la-residencia-del-embajador-de-estados-unidos-nid16092024/</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>El color de la temporada. Las plantas con hojas o frutos de color bordó y dónde ubicarlas para tener éxito</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>/revista-jardin/plantas-de-hojas-rojas-o-bordo-que-suman-color-a-tu-jardin-nid18092024/</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>¿Sol o lluvias? Cómo estará el clima el Día de la Primavera</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>/clima/como-estara-el-clima-el-dia-de-la-primavera-y-el-resto-del-fin-de-semana-nid19092024/</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>21 de septiembre. Qué pasa con el Día del Estudiante este año</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>/feriados/2024/feriados-de-septiembre-que-pasa-con-el-dia-del-estudiante-nid19092024/</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>A 6 años. Quiénes pueden acceder al crédito online para jubilados de hasta $20 millones</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>/economia/credito-online-quienes-pueden-acceder-al-credito-para-jubilados-de-hasta-20-millones-a-pagar-en-6-nid19092024/</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Según tu ascendente. Cómo impacta el Sol en conexión con Urano este fin de semana</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
         <is>
           <t>/horoscopo/horoscopo-que-dice-tu-ascendente-para-hoy-y-el-fin-de-semana-del-20-de-septiembre-nid19092024/</t>
         </is>
